--- a/abc1.xlsx
+++ b/abc1.xlsx
@@ -643,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2022-07-04 16:42:01.576478</t>
+          <t>2022-07-04 17:00:59.754255</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -760,6 +760,42 @@
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reward </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>

--- a/abc1.xlsx
+++ b/abc1.xlsx
@@ -643,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2022-07-04 17:00:59.754255</t>
+          <t>2022-07-05 16:54:46.012468</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -765,39 +765,147 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Event Type - Polling Event</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Start Date</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>End Date</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reward </t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voters Category - Individual Participants </t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Eligible Voters - Aman Bhatia, Alpana Upadhyay</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participant Category - Individual Participants </t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Eligible Participant - Aman Bhatia, Alpana Upadhyay</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reward </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pass</t>
+    <row r="20">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Submit </t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/abc1.xlsx
+++ b/abc1.xlsx
@@ -701,7 +701,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2022-07-05 16:54:46.012468</t>
+          <t>2022-07-06 14:16:05.923515</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/abc1.xlsx
+++ b/abc1.xlsx
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non Contest Event" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Bug" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Polling Event" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non-Contest Event" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -914,6 +915,247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>aman.bhatia@geminisolutions.com</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>RitaNandini96</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2022-07-06 21:34:47.678472</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Uploading Banner Image</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Upload Listing Image</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description </t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Event Type - Non-Contest Event</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reward </t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participant Category - Individual Participants </t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Eligible Participant - Aman Bhatia, Alpana Upadhyay</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Submit </t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">

--- a/abc1.xlsx
+++ b/abc1.xlsx
@@ -18,6 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Bug" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Polling Event" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non-Contest Event" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contest Event" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1156,6 +1157,223 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>aman.bhatia@geminisolutions.com</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>RitaNandini96</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2022-07-06 22:16:22.219807</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Uploading Banner Image</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Upload Listing Image</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description </t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Event Type - Contest Event</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Event Type - Contest Event</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reward </t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participant Category - Individual Participants </t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">

--- a/abc1.xlsx
+++ b/abc1.xlsx
@@ -1163,7 +1163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2022-07-06 22:16:22.219807</t>
+          <t>2022-07-07 13:25:30.470803</t>
         </is>
       </c>
     </row>
@@ -1364,6 +1364,30 @@
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Eligible Participant - Aman Bhatia, Alpana Upadhyay</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cutoff Points </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/abc1.xlsx
+++ b/abc1.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>2022-07-10 19:25:31.819082</t>
+          <t>2022-07-10 19:34:12.016826</t>
         </is>
       </c>
     </row>

--- a/abc1.xlsx
+++ b/abc1.xlsx
@@ -543,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,181 @@
       <c r="H1" s="0" t="inlineStr">
         <is>
           <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2022-07-10 21:51:34.729059</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Uploading Banner Image</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Upload Listing Image</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Event Type - Non-Contest Event</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reward </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participant Category - Individual Participants </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Eligible Participant - Aman Bhatia, Alpana Upadhyay</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Submit </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
